--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lta-Tnfrsf1a.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H2">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.913163</v>
+        <v>19.98610666666667</v>
       </c>
       <c r="N2">
-        <v>221.739489</v>
+        <v>59.95832</v>
       </c>
       <c r="O2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="P2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="Q2">
-        <v>189.670513954259</v>
+        <v>0.28264352048</v>
       </c>
       <c r="R2">
-        <v>1707.034625588331</v>
+        <v>2.54379168432</v>
       </c>
       <c r="S2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
       <c r="T2">
-        <v>0.6096331558809398</v>
+        <v>0.2969043109767812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H3">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>94.201697</v>
       </c>
       <c r="O3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="P3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
       <c r="Q3">
-        <v>80.57781843879589</v>
+        <v>0.444066799658</v>
       </c>
       <c r="R3">
-        <v>725.200365949163</v>
+        <v>3.996601196922</v>
       </c>
       <c r="S3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712238</v>
       </c>
       <c r="T3">
-        <v>0.2589907557307037</v>
+        <v>0.4664722083712239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.566126333333334</v>
+        <v>0.014142</v>
       </c>
       <c r="H4">
-        <v>7.698379</v>
+        <v>0.042426</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>47.784912</v>
       </c>
       <c r="O4">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="P4">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="Q4">
-        <v>40.87404033973867</v>
+        <v>0.225258075168</v>
       </c>
       <c r="R4">
-        <v>367.866363057648</v>
+        <v>2.027322676512</v>
       </c>
       <c r="S4">
-        <v>0.1313760883883565</v>
+        <v>0.236623480651995</v>
       </c>
       <c r="T4">
-        <v>0.1313760883883564</v>
+        <v>0.236623480651995</v>
       </c>
     </row>
   </sheetData>
